--- a/Corte de Apelaciones de Arica/1-2013301#2#1-C-ingresos-2021-6.xlsx
+++ b/Corte de Apelaciones de Arica/1-2013301#2#1-C-ingresos-2021-6.xlsx
@@ -61,64 +61,64 @@
     <t>Bienes Raíces, Reclamo Negativa Del Conservador</t>
   </si>
   <si>
+    <t>Perjuicios, Indemnización De</t>
+  </si>
+  <si>
+    <t>Arrendam.terminación Inmediata Por No Pago Rentas O Reconven</t>
+  </si>
+  <si>
+    <t>Liquidación Voluntaria Persona Natural</t>
+  </si>
+  <si>
     <t>Obligación De Dar, Cumplimiento</t>
   </si>
   <si>
-    <t>Perjuicios, Indemnización De</t>
-  </si>
-  <si>
     <t>Arbitro Y Derivados, Designacion De</t>
   </si>
   <si>
-    <t>Liquidación Voluntaria Persona Natural</t>
-  </si>
-  <si>
-    <t>Arrendam.terminación Inmediata Por No Pago Rentas O Reconven</t>
+    <t>Registro Civil, Rectificación Partidas</t>
+  </si>
+  <si>
+    <t>Demencia S/Cert. Compin, Interdicción Por</t>
+  </si>
+  <si>
+    <t>Obligación De Hacer, Cumplimiento</t>
+  </si>
+  <si>
+    <t>Muerte Presunta</t>
+  </si>
+  <si>
+    <t>Vehículos Motorizados, Inscripciones En Registro</t>
+  </si>
+  <si>
+    <t>Otras Medidas</t>
+  </si>
+  <si>
+    <t>Medida Prejudicial Probatoria</t>
   </si>
   <si>
     <t>Medida Prejudicial Preparatoria</t>
   </si>
   <si>
+    <t>Otros Sumarios</t>
+  </si>
+  <si>
+    <t>Precario, Inc. 2º Art. 2.195 C.c</t>
+  </si>
+  <si>
+    <t>Contrato, Cumplimiento De</t>
+  </si>
+  <si>
     <t>Minera, Manifestación (Concesión Para Explotación)</t>
   </si>
   <si>
-    <t>Otras Medidas</t>
-  </si>
-  <si>
-    <t>Medida Prejudicial Probatoria</t>
-  </si>
-  <si>
-    <t>Registro Civil, Rectificación Partidas</t>
-  </si>
-  <si>
-    <t>Vehículos Motorizados, Inscripciones En Registro</t>
-  </si>
-  <si>
-    <t>Muerte Presunta</t>
+    <t>Notificaciones Judiciales Varias, Incluye Árbitro Voluntar</t>
+  </si>
+  <si>
+    <t>Otros Voluntarios</t>
   </si>
   <si>
     <t>Contrato, Resolución De</t>
-  </si>
-  <si>
-    <t>Obligación De Hacer, Cumplimiento</t>
-  </si>
-  <si>
-    <t>Demencia S/Cert. Compin, Interdicción Por</t>
-  </si>
-  <si>
-    <t>Notificaciones Judiciales Varias, Incluye Árbitro Voluntar</t>
-  </si>
-  <si>
-    <t>Otros Sumarios</t>
-  </si>
-  <si>
-    <t>Precario, Inc. 2º Art. 2.195 C.c</t>
-  </si>
-  <si>
-    <t>Contrato, Cumplimiento De</t>
-  </si>
-  <si>
-    <t>Otros Voluntarios</t>
   </si>
   <si>
     <t>Corte De Apelaciones De Arica</t>
